--- a/pandas/DA.xlsx
+++ b/pandas/DA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guseo\data_analysis\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683FF5A-88FF-49AB-87A7-EBE33989571C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D0B4F4-1755-4272-A6F6-06A48653B5E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="57">
   <si>
     <t/>
   </si>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,6 +318,12 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -735,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -780,253 +786,253 @@
     <row r="1" spans="1:53" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:53" ht="3.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:53" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
     <row r="4" spans="1:53" ht="3.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:53" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:53" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="8" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="9" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="10">
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12">
         <v>23068</v>
       </c>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="9" t="s">
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="10">
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="12">
         <v>3</v>
       </c>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="11" t="s">
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="12" t="s">
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
     </row>
     <row r="7" spans="1:53" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
     </row>
     <row r="8" spans="1:53" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="9" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9" t="s">
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9" t="s">
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
     </row>
     <row r="9" spans="1:53" ht="8.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1038,17 +1044,17 @@
       <c r="J10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="K10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9"/>
+      <c r="N10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11"/>
       <c r="P10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,10 +1073,10 @@
       <c r="U10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9"/>
+      <c r="V10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="11"/>
       <c r="X10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,10 +1122,10 @@
       <c r="AL10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="9"/>
+      <c r="AM10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="11"/>
       <c r="AO10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,39 +1138,39 @@
       <c r="AR10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AS10" s="9" t="s">
+      <c r="AS10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AT10" s="9" t="s">
+      <c r="AT10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AU10" s="9" t="s">
+      <c r="AU10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AV10" s="9" t="s">
+      <c r="AV10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AW10" s="9" t="s">
+      <c r="AW10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AX10" s="9" t="s">
+      <c r="AX10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AY10" s="9" t="s">
+      <c r="AY10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AZ10" s="9" t="s">
+      <c r="AZ10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,17 +1180,17 @@
       <c r="J11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9"/>
+      <c r="K11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9"/>
+      <c r="N11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11"/>
       <c r="P11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,10 +1209,10 @@
       <c r="U11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="9"/>
+      <c r="V11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11"/>
       <c r="X11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,10 +1258,10 @@
       <c r="AL11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="9"/>
+      <c r="AM11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11"/>
       <c r="AO11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,23 +1274,23 @@
       <c r="AR11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
     </row>
     <row r="12" spans="1:53" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1306,17 +1312,17 @@
       <c r="J12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9"/>
+      <c r="K12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9"/>
+      <c r="N12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11"/>
       <c r="P12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,10 +1341,10 @@
       <c r="U12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="9"/>
+      <c r="V12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="11"/>
       <c r="X12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,10 +1390,10 @@
       <c r="AL12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="9"/>
+      <c r="AM12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="11"/>
       <c r="AO12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,10 +1435,10 @@
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1454,17 +1460,17 @@
       <c r="J13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9"/>
+      <c r="K13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9"/>
+      <c r="N13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11"/>
       <c r="P13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,10 +1489,10 @@
       <c r="U13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="9"/>
+      <c r="V13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11"/>
       <c r="X13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,10 +1538,10 @@
       <c r="AL13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="9"/>
+      <c r="AM13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="11"/>
       <c r="AO13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1577,10 +1583,10 @@
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1602,17 +1608,17 @@
       <c r="J14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9"/>
+      <c r="K14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9"/>
+      <c r="N14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11"/>
       <c r="P14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,10 +1637,10 @@
       <c r="U14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W14" s="9"/>
+      <c r="V14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11"/>
       <c r="X14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,10 +1686,10 @@
       <c r="AL14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="9"/>
+      <c r="AM14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="11"/>
       <c r="AO14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,10 +1731,10 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1750,17 +1756,17 @@
       <c r="J15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9"/>
+      <c r="K15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9"/>
+      <c r="N15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11"/>
       <c r="P15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,10 +1785,10 @@
       <c r="U15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="9"/>
+      <c r="V15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11"/>
       <c r="X15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,10 +1834,10 @@
       <c r="AL15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="9"/>
+      <c r="AM15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="11"/>
       <c r="AO15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1873,10 +1879,10 @@
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1898,17 +1904,17 @@
       <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9"/>
+      <c r="K16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11"/>
       <c r="M16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9"/>
+      <c r="N16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11"/>
       <c r="P16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1927,10 +1933,10 @@
       <c r="U16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9"/>
+      <c r="V16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="11"/>
       <c r="X16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1976,10 +1982,10 @@
       <c r="AL16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="9"/>
+      <c r="AM16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="11"/>
       <c r="AO16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,10 +2027,10 @@
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2046,17 +2052,17 @@
       <c r="J17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9"/>
+      <c r="K17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11"/>
       <c r="M17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9"/>
+      <c r="N17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11"/>
       <c r="P17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2075,10 +2081,10 @@
       <c r="U17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" s="9"/>
+      <c r="V17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11"/>
       <c r="X17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,10 +2130,10 @@
       <c r="AL17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="9"/>
+      <c r="AM17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="11"/>
       <c r="AO17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2169,10 +2175,10 @@
       <c r="A18" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2194,17 +2200,17 @@
       <c r="J18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9"/>
+      <c r="K18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9"/>
+      <c r="N18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11"/>
       <c r="P18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,10 +2229,10 @@
       <c r="U18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W18" s="9"/>
+      <c r="V18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11"/>
       <c r="X18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2272,10 +2278,10 @@
       <c r="AL18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="9"/>
+      <c r="AM18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11"/>
       <c r="AO18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2317,10 +2323,10 @@
       <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2342,17 +2348,17 @@
       <c r="J19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9"/>
+      <c r="K19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11"/>
       <c r="M19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9"/>
+      <c r="N19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11"/>
       <c r="P19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,10 +2377,10 @@
       <c r="U19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W19" s="9"/>
+      <c r="V19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11"/>
       <c r="X19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2420,10 +2426,10 @@
       <c r="AL19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="9"/>
+      <c r="AM19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="11"/>
       <c r="AO19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2465,10 +2471,10 @@
       <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
@@ -2490,17 +2496,17 @@
       <c r="J20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9"/>
+      <c r="K20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11"/>
       <c r="M20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9"/>
+      <c r="N20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="11"/>
       <c r="P20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,10 +2525,10 @@
       <c r="U20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W20" s="9"/>
+      <c r="V20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="11"/>
       <c r="X20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2568,10 +2574,10 @@
       <c r="AL20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="9"/>
+      <c r="AM20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="11"/>
       <c r="AO20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2613,10 +2619,10 @@
       <c r="A21" s="6">
         <v>10</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
@@ -2638,17 +2644,17 @@
       <c r="J21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9"/>
+      <c r="K21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11"/>
       <c r="M21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9"/>
+      <c r="N21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11"/>
       <c r="P21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,10 +2673,10 @@
       <c r="U21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="9"/>
+      <c r="V21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11"/>
       <c r="X21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2716,10 +2722,10 @@
       <c r="AL21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="9"/>
+      <c r="AM21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="11"/>
       <c r="AO21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2761,10 +2767,10 @@
       <c r="A22" s="6">
         <v>11</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
@@ -2786,17 +2792,17 @@
       <c r="J22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9"/>
+      <c r="K22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11"/>
       <c r="M22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9"/>
+      <c r="N22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11"/>
       <c r="P22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2815,10 +2821,10 @@
       <c r="U22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W22" s="9"/>
+      <c r="V22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="11"/>
       <c r="X22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2864,10 +2870,10 @@
       <c r="AL22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="9"/>
+      <c r="AM22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="11"/>
       <c r="AO22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2909,10 +2915,10 @@
       <c r="A23" s="6">
         <v>12</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2934,17 +2940,17 @@
       <c r="J23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9"/>
+      <c r="K23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11"/>
       <c r="M23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9"/>
+      <c r="N23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11"/>
       <c r="P23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2963,10 +2969,10 @@
       <c r="U23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W23" s="9"/>
+      <c r="V23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11"/>
       <c r="X23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3012,10 +3018,10 @@
       <c r="AL23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="9"/>
+      <c r="AM23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="11"/>
       <c r="AO23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3057,10 +3063,10 @@
       <c r="A24" s="6">
         <v>13</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
@@ -3082,17 +3088,17 @@
       <c r="J24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9"/>
+      <c r="K24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11"/>
       <c r="M24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9"/>
+      <c r="N24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="11"/>
       <c r="P24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3111,10 +3117,10 @@
       <c r="U24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W24" s="9"/>
+      <c r="V24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="11"/>
       <c r="X24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3160,10 +3166,10 @@
       <c r="AL24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="9"/>
+      <c r="AM24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="11"/>
       <c r="AO24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3205,10 +3211,10 @@
       <c r="A25" s="6">
         <v>14</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
@@ -3230,17 +3236,17 @@
       <c r="J25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9"/>
+      <c r="K25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11"/>
       <c r="M25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9"/>
+      <c r="N25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11"/>
       <c r="P25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3259,10 +3265,10 @@
       <c r="U25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="9"/>
+      <c r="V25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11"/>
       <c r="X25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,10 +3314,10 @@
       <c r="AL25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="9"/>
+      <c r="AM25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="11"/>
       <c r="AO25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3353,10 +3359,10 @@
       <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
@@ -3378,17 +3384,17 @@
       <c r="J26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9"/>
+      <c r="K26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11"/>
       <c r="M26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9"/>
+      <c r="N26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="11"/>
       <c r="P26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3407,10 +3413,10 @@
       <c r="U26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" s="9"/>
+      <c r="V26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="11"/>
       <c r="X26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3456,10 +3462,10 @@
       <c r="AL26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="9"/>
+      <c r="AM26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="11"/>
       <c r="AO26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3501,10 +3507,10 @@
       <c r="A27" s="6">
         <v>16</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
         <v>51</v>
       </c>
@@ -3526,17 +3532,17 @@
       <c r="J27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9"/>
+      <c r="K27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11"/>
       <c r="M27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9"/>
+      <c r="N27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11"/>
       <c r="P27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3555,10 +3561,10 @@
       <c r="U27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W27" s="9"/>
+      <c r="V27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11"/>
       <c r="X27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3604,10 +3610,10 @@
       <c r="AL27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="9"/>
+      <c r="AM27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="11"/>
       <c r="AO27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3649,10 +3655,10 @@
       <c r="A28" s="6">
         <v>17</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
@@ -3674,17 +3680,17 @@
       <c r="J28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9"/>
+      <c r="K28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11"/>
       <c r="M28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9"/>
+      <c r="N28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="11"/>
       <c r="P28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3703,10 +3709,10 @@
       <c r="U28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" s="9"/>
+      <c r="V28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="11"/>
       <c r="X28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3752,10 +3758,10 @@
       <c r="AL28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="9"/>
+      <c r="AM28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="11"/>
       <c r="AO28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3794,25 +3800,13 @@
       </c>
     </row>
     <row r="29" spans="1:52" ht="15.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3822,17 +3816,17 @@
       <c r="J29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9"/>
+      <c r="K29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9"/>
+      <c r="N29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11"/>
       <c r="P29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3851,10 +3845,10 @@
       <c r="U29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W29" s="9"/>
+      <c r="V29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11"/>
       <c r="X29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3900,10 +3894,10 @@
       <c r="AL29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM29" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="9"/>
+      <c r="AM29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="11"/>
       <c r="AO29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3945,10 +3939,10 @@
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="B30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
         <v>0</v>
       </c>
@@ -3970,17 +3964,17 @@
       <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9"/>
+      <c r="K30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11"/>
       <c r="M30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9"/>
+      <c r="N30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11"/>
       <c r="P30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3999,10 +3993,10 @@
       <c r="U30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W30" s="9"/>
+      <c r="V30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11"/>
       <c r="X30" s="1" t="s">
         <v>0</v>
       </c>
@@ -4048,10 +4042,10 @@
       <c r="AL30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="9"/>
+      <c r="AM30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="11"/>
       <c r="AO30" s="1" t="s">
         <v>0</v>
       </c>
@@ -4093,10 +4087,10 @@
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
         <v>0</v>
       </c>
@@ -4118,17 +4112,17 @@
       <c r="J31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9"/>
+      <c r="K31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11"/>
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9"/>
+      <c r="N31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11"/>
       <c r="P31" s="1" t="s">
         <v>0</v>
       </c>
@@ -4147,10 +4141,10 @@
       <c r="U31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W31" s="9"/>
+      <c r="V31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" s="11"/>
       <c r="X31" s="1" t="s">
         <v>0</v>
       </c>
@@ -4196,10 +4190,10 @@
       <c r="AL31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM31" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="9"/>
+      <c r="AM31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="11"/>
       <c r="AO31" s="1" t="s">
         <v>0</v>
       </c>
@@ -4241,10 +4235,10 @@
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8"/>
+      <c r="B32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -4266,17 +4260,17 @@
       <c r="J32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9"/>
+      <c r="K32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11"/>
       <c r="M32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9"/>
+      <c r="N32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11"/>
       <c r="P32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4295,10 +4289,10 @@
       <c r="U32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W32" s="9"/>
+      <c r="V32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32" s="11"/>
       <c r="X32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4344,10 +4338,10 @@
       <c r="AL32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM32" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="9"/>
+      <c r="AM32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="11"/>
       <c r="AO32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,10 +4383,10 @@
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8"/>
+      <c r="B33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
@@ -4414,17 +4408,17 @@
       <c r="J33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9"/>
+      <c r="K33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11"/>
       <c r="M33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9"/>
+      <c r="N33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="11"/>
       <c r="P33" s="1" t="s">
         <v>0</v>
       </c>
@@ -4443,10 +4437,10 @@
       <c r="U33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W33" s="9"/>
+      <c r="V33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" s="11"/>
       <c r="X33" s="1" t="s">
         <v>0</v>
       </c>
@@ -4492,10 +4486,10 @@
       <c r="AL33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="9"/>
+      <c r="AM33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="11"/>
       <c r="AO33" s="1" t="s">
         <v>0</v>
       </c>
@@ -4537,10 +4531,10 @@
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8"/>
+      <c r="B34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="2" t="s">
         <v>0</v>
       </c>
@@ -4562,17 +4556,17 @@
       <c r="J34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9"/>
+      <c r="K34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11"/>
       <c r="M34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9"/>
+      <c r="N34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11"/>
       <c r="P34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4591,10 +4585,10 @@
       <c r="U34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W34" s="9"/>
+      <c r="V34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W34" s="11"/>
       <c r="X34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4640,10 +4634,10 @@
       <c r="AL34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="9"/>
+      <c r="AM34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="11"/>
       <c r="AO34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4685,10 +4679,10 @@
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="8"/>
+      <c r="B35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="2" t="s">
         <v>0</v>
       </c>
@@ -4710,17 +4704,17 @@
       <c r="J35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9"/>
+      <c r="K35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11"/>
       <c r="M35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9"/>
+      <c r="N35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11"/>
       <c r="P35" s="1" t="s">
         <v>0</v>
       </c>
@@ -4739,10 +4733,10 @@
       <c r="U35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W35" s="9"/>
+      <c r="V35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W35" s="11"/>
       <c r="X35" s="1" t="s">
         <v>0</v>
       </c>
@@ -4788,10 +4782,10 @@
       <c r="AL35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="9"/>
+      <c r="AM35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="11"/>
       <c r="AO35" s="1" t="s">
         <v>0</v>
       </c>
@@ -4833,10 +4827,10 @@
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
         <v>0</v>
       </c>
@@ -4858,17 +4852,17 @@
       <c r="J36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9"/>
+      <c r="K36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11"/>
       <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9"/>
+      <c r="N36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11"/>
       <c r="P36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4887,10 +4881,10 @@
       <c r="U36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W36" s="9"/>
+      <c r="V36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11"/>
       <c r="X36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4936,10 +4930,10 @@
       <c r="AL36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="9"/>
+      <c r="AM36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="11"/>
       <c r="AO36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4981,10 +4975,10 @@
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="B37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="2" t="s">
         <v>0</v>
       </c>
@@ -5006,17 +5000,17 @@
       <c r="J37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9"/>
+      <c r="K37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11"/>
       <c r="M37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9"/>
+      <c r="N37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="11"/>
       <c r="P37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5035,10 +5029,10 @@
       <c r="U37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W37" s="9"/>
+      <c r="V37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W37" s="11"/>
       <c r="X37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5084,10 +5078,10 @@
       <c r="AL37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="9"/>
+      <c r="AM37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="11"/>
       <c r="AO37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5129,10 +5123,10 @@
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="8"/>
+      <c r="B38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="2" t="s">
         <v>0</v>
       </c>
@@ -5154,17 +5148,17 @@
       <c r="J38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9"/>
+      <c r="K38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11"/>
       <c r="M38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9"/>
+      <c r="N38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11"/>
       <c r="P38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5183,10 +5177,10 @@
       <c r="U38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9"/>
+      <c r="V38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11"/>
       <c r="X38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5232,10 +5226,10 @@
       <c r="AL38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="9"/>
+      <c r="AM38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="11"/>
       <c r="AO38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5277,10 +5271,10 @@
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8"/>
+      <c r="B39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
@@ -5302,17 +5296,17 @@
       <c r="J39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9"/>
+      <c r="K39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11"/>
       <c r="M39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N39" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9"/>
+      <c r="N39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="11"/>
       <c r="P39" s="1" t="s">
         <v>0</v>
       </c>
@@ -5331,10 +5325,10 @@
       <c r="U39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V39" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" s="9"/>
+      <c r="V39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" s="11"/>
       <c r="X39" s="1" t="s">
         <v>0</v>
       </c>
@@ -5380,10 +5374,10 @@
       <c r="AL39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM39" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="9"/>
+      <c r="AM39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="11"/>
       <c r="AO39" s="1" t="s">
         <v>0</v>
       </c>
@@ -5425,10 +5419,10 @@
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8"/>
+      <c r="B40" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="2" t="s">
         <v>0</v>
       </c>
@@ -5450,17 +5444,17 @@
       <c r="J40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9"/>
+      <c r="K40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11"/>
       <c r="M40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N40" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9"/>
+      <c r="N40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11"/>
       <c r="P40" s="1" t="s">
         <v>0</v>
       </c>
@@ -5479,10 +5473,10 @@
       <c r="U40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V40" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W40" s="9"/>
+      <c r="V40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11"/>
       <c r="X40" s="1" t="s">
         <v>0</v>
       </c>
@@ -5528,10 +5522,10 @@
       <c r="AL40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM40" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="9"/>
+      <c r="AM40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="11"/>
       <c r="AO40" s="1" t="s">
         <v>0</v>
       </c>
@@ -5573,10 +5567,10 @@
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="8"/>
+      <c r="B41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="2" t="s">
         <v>0</v>
       </c>
@@ -5598,17 +5592,17 @@
       <c r="J41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9"/>
+      <c r="K41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11"/>
       <c r="M41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9"/>
+      <c r="N41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="11"/>
       <c r="P41" s="1" t="s">
         <v>0</v>
       </c>
@@ -5627,10 +5621,10 @@
       <c r="U41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W41" s="9"/>
+      <c r="V41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W41" s="11"/>
       <c r="X41" s="1" t="s">
         <v>0</v>
       </c>
@@ -5676,10 +5670,10 @@
       <c r="AL41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="9"/>
+      <c r="AM41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="11"/>
       <c r="AO41" s="1" t="s">
         <v>0</v>
       </c>
@@ -5721,10 +5715,10 @@
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="8"/>
+      <c r="B42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="2" t="s">
         <v>0</v>
       </c>
@@ -5746,17 +5740,17 @@
       <c r="J42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9"/>
+      <c r="K42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11"/>
       <c r="M42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9"/>
+      <c r="N42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11"/>
       <c r="P42" s="1" t="s">
         <v>0</v>
       </c>
@@ -5775,10 +5769,10 @@
       <c r="U42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W42" s="9"/>
+      <c r="V42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11"/>
       <c r="X42" s="1" t="s">
         <v>0</v>
       </c>
@@ -5824,10 +5818,10 @@
       <c r="AL42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM42" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="9"/>
+      <c r="AM42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="11"/>
       <c r="AO42" s="1" t="s">
         <v>0</v>
       </c>
@@ -5869,10 +5863,10 @@
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8"/>
+      <c r="B43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="2" t="s">
         <v>0</v>
       </c>
@@ -5894,17 +5888,17 @@
       <c r="J43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9"/>
+      <c r="K43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11"/>
       <c r="M43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9"/>
+      <c r="N43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="11"/>
       <c r="P43" s="1" t="s">
         <v>0</v>
       </c>
@@ -5923,10 +5917,10 @@
       <c r="U43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W43" s="9"/>
+      <c r="V43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" s="11"/>
       <c r="X43" s="1" t="s">
         <v>0</v>
       </c>
@@ -5972,10 +5966,10 @@
       <c r="AL43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM43" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="9"/>
+      <c r="AM43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="11"/>
       <c r="AO43" s="1" t="s">
         <v>0</v>
       </c>
@@ -6017,10 +6011,10 @@
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8"/>
+      <c r="B44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="2" t="s">
         <v>0</v>
       </c>
@@ -6042,17 +6036,17 @@
       <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9"/>
+      <c r="K44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11"/>
       <c r="M44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="9"/>
+      <c r="N44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11"/>
       <c r="P44" s="1" t="s">
         <v>0</v>
       </c>
@@ -6071,10 +6065,10 @@
       <c r="U44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="W44" s="9"/>
+      <c r="V44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11"/>
       <c r="X44" s="1" t="s">
         <v>0</v>
       </c>
@@ -6120,10 +6114,10 @@
       <c r="AL44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM44" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="9"/>
+      <c r="AM44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="11"/>
       <c r="AO44" s="1" t="s">
         <v>0</v>
       </c>
@@ -6194,6 +6188,8 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="AY10:AY11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="N12:O12"/>
@@ -6203,8 +6199,6 @@
     <mergeCell ref="AU10:AU11"/>
     <mergeCell ref="AV10:AV11"/>
     <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="AY10:AY11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:O10"/>
